--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/FY23Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/FY23Plan/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F82BB48-7AF9-4F62-98F5-180570FBB459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{5983F885-F245-48D0-900C-B5281CFB16FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="techradar" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="9" uniqueCount="9">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -53,12 +53,33 @@
   <si>
     <t>CI/CD piple tools.
 https://github.com/features/actions</t>
+  </si>
+  <si>
+    <t>Techniques</t>
+  </si>
+  <si>
+    <t>Platforms</t>
+  </si>
+  <si>
+    <t>Langages-and-frameworks</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Adopt</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -918,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,25 +990,55 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/FY23Plan/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{5983F885-F245-48D0-900C-B5281CFB16FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{F82F9314-9154-43B7-9031-C9C2C2EBDC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>GithubAction</t>
   </si>
   <si>
-    <t>assess</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>TBA</t>
+  </si>
+  <si>
+    <t>Assess</t>
   </si>
 </sst>
 </file>
@@ -940,17 +940,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="157.7109375" customWidth="1"/>
   </cols>
@@ -977,201 +977,68 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/FY23Plan/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{F82F9314-9154-43B7-9031-C9C2C2EBDC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{D1D3D2D5-5873-4228-B37D-545FF722BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="16">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -45,35 +45,42 @@
     <t>GithubAction</t>
   </si>
   <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>CI/CD piple tools.
+    <t>Techniques</t>
+  </si>
+  <si>
+    <t>Platforms</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Adopt</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Assess</t>
+  </si>
+  <si>
+    <t>Frameworks</t>
+  </si>
+  <si>
+    <t>Tools-DevOps</t>
+  </si>
+  <si>
+    <t>CI/CD pipeline tool.
 https://github.com/features/actions</t>
   </si>
   <si>
-    <t>Techniques</t>
-  </si>
-  <si>
-    <t>Platforms</t>
-  </si>
-  <si>
-    <t>Langages-and-frameworks</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>Adopt</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>Assess</t>
+    <t>Playwright</t>
+  </si>
+  <si>
+    <t>Web Test tool.
+https://playwright.dev/java/</t>
   </si>
 </sst>
 </file>
@@ -940,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,72 +979,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -1,31 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/FY23Plan/techradar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{D1D3D2D5-5873-4228-B37D-545FF722BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{CC834E5E-520C-4E08-849A-A33B37D6D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="techradar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4878599B-E11D-44FA-98C2-E94F810C3A0E}</author>
+    <author>tc={BBFCD629-DEC5-4C17-A53F-D282BFA335BC}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="1025" xr:uid="{4878599B-E11D-44FA-98C2-E94F810C3A0E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Access, Trial, Adopt, Hold</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="1026" xr:uid="{BBFCD629-DEC5-4C17-A53F-D282BFA335BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tools-DevOps, Techniques, Platforms</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="18">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="93" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -52,12 +132,6 @@
   </si>
   <si>
     <t>Hold</t>
-  </si>
-  <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>Adopt</t>
   </si>
   <si>
     <t>TBA</t>
@@ -81,13 +155,163 @@
   <si>
     <t>Web Test tool.
 https://playwright.dev/java/</t>
+  </si>
+  <si>
+    <t>Pytorch</t>
+  </si>
+  <si>
+    <t>Jest</t>
+  </si>
+  <si>
+    <t>GraphQL</t>
+  </si>
+  <si>
+    <t>https://www.uipath.com.cn/rpa/robotic-process-automation/</t>
+  </si>
+  <si>
+    <t>flutter</t>
+  </si>
+  <si>
+    <t>Jmockit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebAssembly (Wasm) </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Java script testing framework:
+https://jestjs.io/</t>
+  </si>
+  <si>
+    <t>AI framework:
+https://pytorch.org/</t>
+  </si>
+  <si>
+    <t>https://webassembly.org/
+WASM Run time:  WAMR (C) , Wasmer (Rust)
+https://github.com/bytecodealliance/wasm-micro-runtime
+https://wasmer.io/</t>
+  </si>
+  <si>
+    <t>API query language
+https://graphql.org/</t>
+  </si>
+  <si>
+    <t>Process orchestrator:
+https://camunda.com/</t>
+  </si>
+  <si>
+    <t>Camunda</t>
+  </si>
+  <si>
+    <t>fake-smtp-server</t>
+  </si>
+  <si>
+    <t>SMTP server mock:
+https://github.com/gessnerfl/fake-smtp-server</t>
+  </si>
+  <si>
+    <t>HTTP Client mock:
+https://github.com/httpie/httpie
+REST Server mock:
+https://github.com/typicode/json-server</t>
+  </si>
+  <si>
+    <t>httpie &amp; json-server</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>for code scan &amp; code generation:
+https://openai.com/api/</t>
+  </si>
+  <si>
+    <t>Docker image multi-stage build</t>
+  </si>
+  <si>
+    <t>Docker image multi-stage build:
+https://docs.docker.com/build/building/multi-stage/</t>
+  </si>
+  <si>
+    <t>Spring native:
+https://docs.spring.io/spring-native/docs/current/reference/htmlsingle/
+Reference:
+https://waynerv.com/posts/how-to-reduce-docker-image-size/
+https://blog.codecentric.de/spring-boot-graalvm-docker-heroku
+https://maddevs.io/blog/spring-boot-vs-quarkus/</t>
+  </si>
+  <si>
+    <t>Spring Native</t>
+  </si>
+  <si>
+    <t>Uipath (RPA)</t>
+  </si>
+  <si>
+    <t>automated testing mock toolkit for Java:
+https://jmockit.github.io/</t>
+  </si>
+  <si>
+    <t>Cross-platform UI framework by google. Language: Dart
+https://flutter.dev/</t>
+  </si>
+  <si>
+    <t>arthas</t>
+  </si>
+  <si>
+    <t>Java Diagnostic tool open sourced by Alibaba:
+https://arthas.aliyun.com/doc/</t>
+  </si>
+  <si>
+    <t>IaC:
+https://aws.amazon.com/cloudformation/</t>
+  </si>
+  <si>
+    <t>Terraform</t>
+  </si>
+  <si>
+    <t>Iac:
+https://www.terraform.io/</t>
+  </si>
+  <si>
+    <t>AWS serverless compute service:
+https://aws.amazon.com/lambda/</t>
+  </si>
+  <si>
+    <t>Lamda(AWS)</t>
+  </si>
+  <si>
+    <t>Cloudformation(AWS)</t>
+  </si>
+  <si>
+    <t>Golang</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>https://go.dev/</t>
+  </si>
+  <si>
+    <t>https://www.rust-lang.org/</t>
+  </si>
+  <si>
+    <t>Assess?</t>
+  </si>
+  <si>
+    <t>Adopt?</t>
+  </si>
+  <si>
+    <t>Hold?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +445,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -541,7 +785,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -584,16 +828,23 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -627,6 +878,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -648,6 +900,155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1028700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED83DA4-F6EF-E778-1442-B95311C1FDE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2724150" y="19050"/>
+              <a:ext cx="1371600" cy="752475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F620B0-40C1-E6D2-C130-5DC6CD71125B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5667375" y="19050"/>
+              <a:ext cx="1371600" cy="752475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main">
+  <person displayName="Cao, Zhe-Jiong (Charlie)" id="{D0502FEE-6A27-4C90-8098-DF27B7ECB25B}" userId="S::zhejiong.cao@hpe.com::da4b72f0-c01f-4864-afc7-7c3acaf31d46" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,17 +1346,28 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main">
+  <threadedComment ref="B1" dT="2023-02-06T08:09:03.75" personId="{D0502FEE-6A27-4C90-8098-DF27B7ECB25B}" id="{4878599B-E11D-44FA-98C2-E94F810C3A0E}">
+    <text>Access, Trial, Adopt, Hold</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2023-02-06T14:22:47.36" personId="{D0502FEE-6A27-4C90-8098-DF27B7ECB25B}" id="{BBFCD629-DEC5-4C17-A53F-D282BFA335BC}">
+    <text>Tools-DevOps, Techniques, Platforms</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
@@ -979,21 +1391,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1001,70 +1413,428 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="https://jestjs.io/" xr:uid="{E867F245-9571-42C1-A21C-DDDDEBA3CEDE}"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://webassembly.org/_x000a_Run time:  WAMR , Wasmer" xr:uid="{CA93447A-29A3-40C0-A74A-B8502EA37A2D}"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://graphql.org/" xr:uid="{4F6227FB-7292-449B-ADAC-FED4A2737EF5}"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://github.com/httpie/httpie" xr:uid="{13FE0E5C-F29C-4154-83E6-7D2FDC612995}"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://github.com/gessnerfl/fake-smtp-server" xr:uid="{0BB40481-6536-44AC-96AD-9936A7E5914D}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://camunda.com/" xr:uid="{FC48E218-9726-42BF-B18C-756D80D463AE}"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://openai.com/api/" xr:uid="{77F5C5ED-DDF6-4FD2-8AC0-9D843673FBA1}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{5466227E-724C-4CAE-A163-F2868D50EAB9}"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://flutter.dev/" xr:uid="{7E859B1B-ECC2-4110-A5AC-1C6E3459AE2A}"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://jmockit.github.io/" xr:uid="{175728EC-6BE2-4ECF-B8ED-1B7AC04D2977}"/>
+    <hyperlink ref="E19" r:id="rId11" display="https://arthas.aliyun.com/doc/" xr:uid="{9DEE00C7-6287-4AA8-B5E4-2E297E14C39D}"/>
+    <hyperlink ref="E18" r:id="rId12" display="https://aws.amazon.com/cloudformation/" xr:uid="{0F67EE3A-6C45-4528-9386-5704563C1C41}"/>
+    <hyperlink ref="E17" r:id="rId13" display="https://www.terraform.io/" xr:uid="{1811E3C5-1BBE-4744-B186-17DE002D7010}"/>
+    <hyperlink ref="E16" r:id="rId14" display="https://aws.amazon.com/lambda/" xr:uid="{A925F0BF-2855-4657-B05C-8ACAD340D9AB}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{33074FC9-6205-410E-BA97-1BBECAB9CC38}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{A12A18A3-3B63-4BD5-B2A8-035A14F13071}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId17"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="v">
+      <legacyDrawing r:id="rId18"/>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{CC834E5E-520C-4E08-849A-A33B37D6D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{DC10E1F4-8651-4838-8CDD-204F471F8F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="techradar" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">techradar!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -63,8 +66,8 @@
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -92,8 +95,8 @@
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -105,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="93" uniqueCount="58">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -131,16 +134,7 @@
     <t>Platforms</t>
   </si>
   <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Assess</t>
-  </si>
-  <si>
-    <t>Frameworks</t>
   </si>
   <si>
     <t>Tools-DevOps</t>
@@ -301,9 +295,6 @@
     <t>Assess?</t>
   </si>
   <si>
-    <t>Adopt?</t>
-  </si>
-  <si>
     <t>Hold?</t>
   </si>
 </sst>
@@ -311,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,26 +437,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -785,7 +756,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -828,23 +799,21 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -878,7 +847,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -917,15 +885,15 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED83DA4-F6EF-E778-1442-B95311C1FDE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68643AE1-B052-2370-D579-6FE46AE67131}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -986,15 +954,15 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F620B0-40C1-E6D2-C130-5DC6CD71125B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD30BAF-499C-C13A-3B88-C6DFFFBC5F80}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1359,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,466 +1342,406 @@
     <col min="5" max="5" width="157.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="https://jestjs.io/" xr:uid="{E867F245-9571-42C1-A21C-DDDDEBA3CEDE}"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://webassembly.org/_x000a_Run time:  WAMR , Wasmer" xr:uid="{CA93447A-29A3-40C0-A74A-B8502EA37A2D}"/>
-    <hyperlink ref="E8" r:id="rId3" display="https://graphql.org/" xr:uid="{4F6227FB-7292-449B-ADAC-FED4A2737EF5}"/>
-    <hyperlink ref="E9" r:id="rId4" display="https://github.com/httpie/httpie" xr:uid="{13FE0E5C-F29C-4154-83E6-7D2FDC612995}"/>
-    <hyperlink ref="E10" r:id="rId5" display="https://github.com/gessnerfl/fake-smtp-server" xr:uid="{0BB40481-6536-44AC-96AD-9936A7E5914D}"/>
-    <hyperlink ref="E11" r:id="rId6" display="https://camunda.com/" xr:uid="{FC48E218-9726-42BF-B18C-756D80D463AE}"/>
-    <hyperlink ref="E12" r:id="rId7" display="https://openai.com/api/" xr:uid="{77F5C5ED-DDF6-4FD2-8AC0-9D843673FBA1}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{5466227E-724C-4CAE-A163-F2868D50EAB9}"/>
-    <hyperlink ref="E20" r:id="rId9" display="https://flutter.dev/" xr:uid="{7E859B1B-ECC2-4110-A5AC-1C6E3459AE2A}"/>
-    <hyperlink ref="E21" r:id="rId10" display="https://jmockit.github.io/" xr:uid="{175728EC-6BE2-4ECF-B8ED-1B7AC04D2977}"/>
-    <hyperlink ref="E19" r:id="rId11" display="https://arthas.aliyun.com/doc/" xr:uid="{9DEE00C7-6287-4AA8-B5E4-2E297E14C39D}"/>
-    <hyperlink ref="E18" r:id="rId12" display="https://aws.amazon.com/cloudformation/" xr:uid="{0F67EE3A-6C45-4528-9386-5704563C1C41}"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://www.terraform.io/" xr:uid="{1811E3C5-1BBE-4744-B186-17DE002D7010}"/>
-    <hyperlink ref="E16" r:id="rId14" display="https://aws.amazon.com/lambda/" xr:uid="{A925F0BF-2855-4657-B05C-8ACAD340D9AB}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{33074FC9-6205-410E-BA97-1BBECAB9CC38}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{A12A18A3-3B63-4BD5-B2A8-035A14F13071}"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://jestjs.io/" xr:uid="{E867F245-9571-42C1-A21C-DDDDEBA3CEDE}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://webassembly.org/_x000a_Run time:  WAMR , Wasmer" xr:uid="{CA93447A-29A3-40C0-A74A-B8502EA37A2D}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://graphql.org/" xr:uid="{4F6227FB-7292-449B-ADAC-FED4A2737EF5}"/>
+    <hyperlink ref="E8" r:id="rId4" display="https://github.com/httpie/httpie" xr:uid="{13FE0E5C-F29C-4154-83E6-7D2FDC612995}"/>
+    <hyperlink ref="E9" r:id="rId5" display="https://github.com/gessnerfl/fake-smtp-server" xr:uid="{0BB40481-6536-44AC-96AD-9936A7E5914D}"/>
+    <hyperlink ref="E10" r:id="rId6" display="https://camunda.com/" xr:uid="{FC48E218-9726-42BF-B18C-756D80D463AE}"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://openai.com/api/" xr:uid="{77F5C5ED-DDF6-4FD2-8AC0-9D843673FBA1}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{5466227E-724C-4CAE-A163-F2868D50EAB9}"/>
+    <hyperlink ref="E19" r:id="rId9" display="https://flutter.dev/" xr:uid="{7E859B1B-ECC2-4110-A5AC-1C6E3459AE2A}"/>
+    <hyperlink ref="E20" r:id="rId10" display="https://jmockit.github.io/" xr:uid="{175728EC-6BE2-4ECF-B8ED-1B7AC04D2977}"/>
+    <hyperlink ref="E18" r:id="rId11" display="https://arthas.aliyun.com/doc/" xr:uid="{9DEE00C7-6287-4AA8-B5E4-2E297E14C39D}"/>
+    <hyperlink ref="E17" r:id="rId12" display="https://aws.amazon.com/cloudformation/" xr:uid="{0F67EE3A-6C45-4528-9386-5704563C1C41}"/>
+    <hyperlink ref="E16" r:id="rId13" display="https://www.terraform.io/" xr:uid="{1811E3C5-1BBE-4744-B186-17DE002D7010}"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://aws.amazon.com/lambda/" xr:uid="{A925F0BF-2855-4657-B05C-8ACAD340D9AB}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{33074FC9-6205-410E-BA97-1BBECAB9CC38}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{A12A18A3-3B63-4BD5-B2A8-035A14F13071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <drawing r:id="rId18"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="v">
-      <legacyDrawing r:id="rId18"/>
+      <legacyDrawing r:id="rId19"/>
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{DC10E1F4-8651-4838-8CDD-204F471F8F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{3F6030F2-34F0-4B0F-8E0C-5C77AE4540F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="54">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Platforms</t>
-  </si>
-  <si>
-    <t>Assess</t>
   </si>
   <si>
     <t>Tools-DevOps</t>
@@ -893,7 +890,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68643AE1-B052-2370-D579-6FE46AE67131}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1070284-490A-6D20-6239-C7D9CB6843CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -962,7 +959,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD30BAF-499C-C13A-3B88-C6DFFFBC5F80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781CEDC9-DDFF-E60D-E6A1-2E9CCEBCEDB0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1330,7 +1327,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,41 +1361,41 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1407,15 +1404,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1424,32 +1421,32 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1458,49 +1455,49 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1509,66 +1506,66 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1577,15 +1574,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1594,32 +1591,32 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -1628,66 +1625,66 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1696,15 +1693,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1713,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{3F6030F2-34F0-4B0F-8E0C-5C77AE4540F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{DEFFC0D9-47E4-4718-BC15-F6798430B947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Tools-DevOps, Techniques, Platforms</t>
+    Tools-DevOps, Techniques, Platforms, Language</t>
       </text>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="v"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="53">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Hold?</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1070284-490A-6D20-6239-C7D9CB6843CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0EDD8F-19E8-51F0-A903-01AF11F6A64C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -959,7 +962,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781CEDC9-DDFF-E60D-E6A1-2E9CCEBCEDB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F015EF9-A9A6-261C-7D68-13720863DFAF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1317,7 +1320,7 @@
     <text>Access, Trial, Adopt, Hold</text>
   </threadedComment>
   <threadedComment ref="C1" dT="2023-02-06T14:22:47.36" personId="{D0502FEE-6A27-4C90-8098-DF27B7ECB25B}" id="{BBFCD629-DEC5-4C17-A53F-D282BFA335BC}">
-    <text>Tools-DevOps, Techniques, Platforms</text>
+    <text>Tools-DevOps, Techniques, Platforms, Language</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1326,8 +1329,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1690,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>1</v>
@@ -1704,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>1</v>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{DEFFC0D9-47E4-4718-BC15-F6798430B947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{37225976-447A-4C40-8E78-B71AD02F71F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="54">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="97" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">WebAssembly (Wasm) </t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Java script testing framework:
@@ -235,9 +232,6 @@
 https://maddevs.io/blog/spring-boot-vs-quarkus/</t>
   </si>
   <si>
-    <t>Spring Native</t>
-  </si>
-  <si>
     <t>Uipath (RPA)</t>
   </si>
   <si>
@@ -289,13 +283,37 @@
     <t>https://www.rust-lang.org/</t>
   </si>
   <si>
-    <t>Assess?</t>
-  </si>
-  <si>
-    <t>Hold?</t>
-  </si>
-  <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>Assess</t>
+  </si>
+  <si>
+    <t>Spring Native/Quarkus</t>
+  </si>
+  <si>
+    <t>Wang Tianyi</t>
+  </si>
+  <si>
+    <t>Guan xiang</t>
+  </si>
+  <si>
+    <t>Ma Bing</t>
+  </si>
+  <si>
+    <t>Donghui</t>
+  </si>
+  <si>
+    <t>Qiu limin</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Wangyi, zhong qiang</t>
+  </si>
+  <si>
+    <t>Cao Zhejiong</t>
   </si>
 </sst>
 </file>
@@ -625,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <start/>
       <end/>
@@ -755,6 +773,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -800,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -812,6 +850,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,7 +937,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0EDD8F-19E8-51F0-A903-01AF11F6A64C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F1DE18-9885-576A-8934-46ED88861C5E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -962,7 +1006,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F015EF9-A9A6-261C-7D68-13720863DFAF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A839F4-7AFB-1DAE-0A87-6CAB99B33146}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1327,11 +1371,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1340,9 +1382,10 @@
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="157.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1359,12 +1402,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1376,12 +1419,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1392,13 +1435,16 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1407,15 +1453,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1424,15 +1473,19 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -1441,15 +1494,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1458,15 +1515,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1475,15 +1533,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1492,15 +1551,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1509,15 +1569,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1526,15 +1587,19 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1543,15 +1608,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1560,15 +1629,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1580,12 +1653,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1594,15 +1667,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1611,15 +1684,18 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -1628,15 +1704,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1645,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1653,7 +1729,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1662,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1670,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1679,41 +1755,41 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{37225976-447A-4C40-8E78-B71AD02F71F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{AFB0963D-4C36-4F0D-97CA-3034AF402D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="techradar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">techradar!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">techradar!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,14 +87,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>1838325</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="97" uniqueCount="60">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="109" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -292,12 +292,6 @@
     <t>Spring Native/Quarkus</t>
   </si>
   <si>
-    <t>Wang Tianyi</t>
-  </si>
-  <si>
-    <t>Guan xiang</t>
-  </si>
-  <si>
     <t>Ma Bing</t>
   </si>
   <si>
@@ -313,7 +307,40 @@
     <t>Wangyi, zhong qiang</t>
   </si>
   <si>
+    <t>Cao Zhejiong, Wang Jiayi</t>
+  </si>
+  <si>
+    <t>Cao Zhejiong, Wang Tianyi, Wang Jiayi</t>
+  </si>
+  <si>
+    <t>着手</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>資料50%</t>
+  </si>
+  <si>
     <t>Cao Zhejiong</t>
+  </si>
+  <si>
+    <t>資料まだ</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Guan xiang(Spring Native), Qin Qing(Quarkus)</t>
+  </si>
+  <si>
+    <t>80%、tianyi着手</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -643,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -773,26 +800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -850,12 +857,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,7 +948,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F1DE18-9885-576A-8934-46ED88861C5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7356E434-018B-5A2D-1B12-D24A1C317641}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -990,14 +1001,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>1838325</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -1006,7 +1017,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A839F4-7AFB-1DAE-0A87-6CAB99B33146}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF7D693-DDA9-6DF3-D1C9-9910FA63DF40}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1373,16 +1384,19 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="157.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="101.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,6 +1415,12 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1418,6 +1438,12 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1436,6 +1462,9 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1455,8 +1484,11 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>54</v>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1475,10 +1507,12 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1496,17 +1530,19 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="F6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1517,14 +1553,15 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1535,14 +1572,15 @@
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1553,7 +1591,8 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1571,7 +1610,8 @@
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1590,9 +1630,11 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1610,10 +1652,12 @@
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1631,17 +1675,19 @@
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1652,13 +1698,15 @@
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1669,6 +1717,8 @@
       <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1686,16 +1736,19 @@
       <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -1706,8 +1759,10 @@
       <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1723,8 +1778,10 @@
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1740,13 +1797,15 @@
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1757,13 +1816,15 @@
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>49</v>
@@ -1774,13 +1835,15 @@
       <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>49</v>
@@ -1791,9 +1854,11 @@
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="https://jestjs.io/" xr:uid="{E867F245-9571-42C1-A21C-DDDDEBA3CEDE}"/>
     <hyperlink ref="E4" r:id="rId2" display="https://webassembly.org/_x000a_Run time:  WAMR , Wasmer" xr:uid="{CA93447A-29A3-40C0-A74A-B8502EA37A2D}"/>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{AFB0963D-4C36-4F0D-97CA-3034AF402D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{09E29990-9FF6-4A64-9B00-165C62C54AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,34 +313,34 @@
     <t>Cao Zhejiong, Wang Tianyi, Wang Jiayi</t>
   </si>
   <si>
-    <t>着手</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
-    <t>資料50%</t>
-  </si>
-  <si>
     <t>Cao Zhejiong</t>
   </si>
   <si>
-    <t>資料まだ</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
     <t>Guan xiang(Spring Native), Qin Qing(Quarkus)</t>
   </si>
   <si>
-    <t>80%、tianyi着手</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>on-going</t>
+  </si>
+  <si>
+    <t>50% creating docs</t>
+  </si>
+  <si>
+    <t>80%, tianyi on-going</t>
+  </si>
+  <si>
+    <t>done, but docs not yet</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -855,9 +855,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -948,7 +945,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7356E434-018B-5A2D-1B12-D24A1C317641}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6E1586-8B2A-70FC-3C56-F0FFDCDF2503}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1017,7 +1014,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF7D693-DDA9-6DF3-D1C9-9910FA63DF40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD380827-3264-F3FD-0525-54C7E0CE6B23}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1385,7 +1382,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,11 +1412,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>68</v>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1438,11 +1435,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>63</v>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1461,11 +1458,11 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>59</v>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1484,11 +1481,11 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>60</v>
+      <c r="G4" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1507,11 +1504,11 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>60</v>
+      <c r="G5" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1530,11 +1527,11 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>59</v>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1629,11 +1626,11 @@
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>61</v>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1652,11 +1649,11 @@
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>66</v>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1675,11 +1672,11 @@
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>64</v>
+      <c r="F13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,11 +1733,11 @@
       <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>59</v>
+      <c r="G16" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{09E29990-9FF6-4A64-9B00-165C62C54AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{268A768A-C716-496D-A240-F6999593E102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="109" uniqueCount="69">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="110" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -319,9 +319,6 @@
     <t>Cao Zhejiong</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Guan xiang(Spring Native), Qin Qing(Quarkus)</t>
   </si>
   <si>
@@ -334,20 +331,35 @@
     <t>on-going</t>
   </si>
   <si>
-    <t>50% creating docs</t>
-  </si>
-  <si>
-    <t>80%, tianyi on-going</t>
-  </si>
-  <si>
     <t>done, but docs not yet</t>
+  </si>
+  <si>
+    <t>on-going 5%</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60% creating docs</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Native 10%, Quarkus 50%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +490,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -845,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -861,7 +879,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -945,7 +968,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6E1586-8B2A-70FC-3C56-F0FFDCDF2503}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243FC797-FB32-2D4F-F4A0-A74743577620}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1014,7 +1037,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD380827-3264-F3FD-0525-54C7E0CE6B23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E8ED18-12AB-F8E6-29AD-3E26E8CF0DAE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1382,7 +1405,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,8 +1414,8 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="101.85546875" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="5" max="5" width="74.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1413,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1439,7 +1462,7 @@
         <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1462,7 +1485,7 @@
         <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1507,8 +1530,8 @@
       <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1530,8 +1553,8 @@
       <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>65</v>
+      <c r="G6" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1550,8 +1573,12 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1629,8 +1656,8 @@
       <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>66</v>
+      <c r="G11" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1652,7 +1679,7 @@
       <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1673,10 +1700,10 @@
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1737,7 +1764,7 @@
         <v>54</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{268A768A-C716-496D-A240-F6999593E102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{33BD8BAE-4C88-4699-8E81-1DE271181DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="110" uniqueCount="70">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="111" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -338,18 +338,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60% creating docs</t>
-    </r>
   </si>
   <si>
     <t>Spring Native 10%, Quarkus 50%</t>
@@ -863,7 +851,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -879,14 +867,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,7 +952,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243FC797-FB32-2D4F-F4A0-A74743577620}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20696EF8-CFF9-9B40-5DFC-6E1BA8881700}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1037,7 +1021,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E8ED18-12AB-F8E6-29AD-3E26E8CF0DAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86169F7-686B-F538-BB05-0E47EFF23DBD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1402,10 +1386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1515,7 @@
       <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1553,7 +1538,7 @@
       <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1576,11 +1561,11 @@
       <c r="F7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1599,7 +1584,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +1603,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1656,8 +1641,8 @@
       <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>68</v>
+      <c r="G11" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1679,7 +1664,7 @@
       <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1703,10 +1688,10 @@
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1725,7 +1710,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1767,7 +1752,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1786,7 +1771,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1805,7 +1790,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1809,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1828,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,7 +1847,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +1867,13 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G22" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="https://jestjs.io/" xr:uid="{E867F245-9571-42C1-A21C-DDDDEBA3CEDE}"/>
     <hyperlink ref="E4" r:id="rId2" display="https://webassembly.org/_x000a_Run time:  WAMR , Wasmer" xr:uid="{CA93447A-29A3-40C0-A74A-B8502EA37A2D}"/>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{33BD8BAE-4C88-4699-8E81-1DE271181DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{A7664138-C2B3-4839-B7B3-FC2007E995DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="111" uniqueCount="69">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="111" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -340,7 +340,53 @@
     <t>done</t>
   </si>
   <si>
-    <t>Spring Native 10%, Quarkus 50%</t>
+    <r>
+      <t xml:space="preserve">on-going </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring Native </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Quarkus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -851,7 +897,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -868,7 +914,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -952,7 +997,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20696EF8-CFF9-9B40-5DFC-6E1BA8881700}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B785C6-A8CE-40BF-4F0B-F9052CD129AD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1021,7 +1066,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86169F7-686B-F538-BB05-0E47EFF23DBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5337F07-FCC2-3654-D985-720B5E5D7A61}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1386,11 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1560,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1558,14 +1602,14 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1584,7 +1628,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1603,7 +1647,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1685,7 @@
       <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1664,7 +1708,7 @@
       <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1688,10 +1732,10 @@
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1710,7 +1754,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1752,7 +1796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,7 +1815,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1790,7 +1834,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +1853,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1872,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1847,7 +1891,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1867,13 +1911,7 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="https://jestjs.io/" xr:uid="{E867F245-9571-42C1-A21C-DDDDEBA3CEDE}"/>
     <hyperlink ref="E4" r:id="rId2" display="https://webassembly.org/_x000a_Run time:  WAMR , Wasmer" xr:uid="{CA93447A-29A3-40C0-A74A-B8502EA37A2D}"/>

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{A7664138-C2B3-4839-B7B3-FC2007E995DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{CEE62708-F659-4D10-81B1-8C06D5A2A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="111" uniqueCount="70">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="111" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -334,25 +334,10 @@
     <t>done, but docs not yet</t>
   </si>
   <si>
-    <t>on-going 5%</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">on-going </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20%</t>
-    </r>
+    <t>on-going 20%</t>
   </si>
   <si>
     <r>
@@ -366,7 +351,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20%</t>
+      <t>40%</t>
     </r>
     <r>
       <rPr>
@@ -375,17 +360,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, Quarkus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100%</t>
+      <t>, Quarkus 100%</t>
     </r>
   </si>
 </sst>
@@ -897,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -916,6 +891,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,7 +973,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B785C6-A8CE-40BF-4F0B-F9052CD129AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6CB53F-BC2E-2C7A-E527-23B3AA235329}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1066,7 +1042,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5337F07-FCC2-3654-D985-720B5E5D7A61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16970536-6B80-E749-5A90-99D7135181B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1410,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1536,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1582,7 +1558,7 @@
       <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1606,7 +1582,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1686,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1709,7 +1685,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1732,7 +1708,7 @@
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,8 +1768,8 @@
       <c r="F16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>64</v>
+      <c r="G16" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/techradar.xlsx
+++ b/techradar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/zhejiong_cao_hpe_com/Documents/VSA/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{CEE62708-F659-4D10-81B1-8C06D5A2A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{6397DCAA-4AB6-46BE-B67E-7999A24F190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="techradar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">techradar!$A$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">techradar!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="111" uniqueCount="69">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="109" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Jest</t>
-  </si>
-  <si>
-    <t>GraphQL</t>
   </si>
   <si>
     <t>https://www.uipath.com.cn/rpa/robotic-process-automation/</t>
@@ -181,10 +178,6 @@
 WASM Run time:  WAMR (C) , Wasmer (Rust)
 https://github.com/bytecodealliance/wasm-micro-runtime
 https://wasmer.io/</t>
-  </si>
-  <si>
-    <t>API query language
-https://graphql.org/</t>
   </si>
   <si>
     <t>Process orchestrator:
@@ -362,6 +355,13 @@
       </rPr>
       <t>, Quarkus 100%</t>
     </r>
+  </si>
+  <si>
+    <t>kubeshark</t>
+  </si>
+  <si>
+    <t>Packet capture on K8s.
+https://kubeshark.co/</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -889,9 +889,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,7 +977,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6CB53F-BC2E-2C7A-E527-23B3AA235329}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3595CB86-D9AB-90E1-78D4-D96A546B741D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1042,7 +1046,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16970536-6B80-E749-5A90-99D7135181B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1023A563-8BE7-BA60-6DDD-69060EAE526F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1410,7 +1414,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1452,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1464,10 +1468,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1475,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1487,18 +1491,18 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1507,13 +1511,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1521,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1530,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1544,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -1553,44 +1557,40 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1599,55 +1599,59 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1658,19 +1662,19 @@
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
+      <c r="G11" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1679,44 +1683,40 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1724,79 +1724,79 @@
       <c r="D14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1805,17 +1805,17 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1824,87 +1824,87 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="https://jestjs.io/" xr:uid="{E867F245-9571-42C1-A21C-DDDDEBA3CEDE}"/>
     <hyperlink ref="E4" r:id="rId2" display="https://webassembly.org/_x000a_Run time:  WAMR , Wasmer" xr:uid="{CA93447A-29A3-40C0-A74A-B8502EA37A2D}"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://graphql.org/" xr:uid="{4F6227FB-7292-449B-ADAC-FED4A2737EF5}"/>
-    <hyperlink ref="E8" r:id="rId4" display="https://github.com/httpie/httpie" xr:uid="{13FE0E5C-F29C-4154-83E6-7D2FDC612995}"/>
-    <hyperlink ref="E9" r:id="rId5" display="https://github.com/gessnerfl/fake-smtp-server" xr:uid="{0BB40481-6536-44AC-96AD-9936A7E5914D}"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://camunda.com/" xr:uid="{FC48E218-9726-42BF-B18C-756D80D463AE}"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://openai.com/api/" xr:uid="{77F5C5ED-DDF6-4FD2-8AC0-9D843673FBA1}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{5466227E-724C-4CAE-A163-F2868D50EAB9}"/>
-    <hyperlink ref="E19" r:id="rId9" display="https://flutter.dev/" xr:uid="{7E859B1B-ECC2-4110-A5AC-1C6E3459AE2A}"/>
-    <hyperlink ref="E20" r:id="rId10" display="https://jmockit.github.io/" xr:uid="{175728EC-6BE2-4ECF-B8ED-1B7AC04D2977}"/>
-    <hyperlink ref="E18" r:id="rId11" display="https://arthas.aliyun.com/doc/" xr:uid="{9DEE00C7-6287-4AA8-B5E4-2E297E14C39D}"/>
-    <hyperlink ref="E17" r:id="rId12" display="https://aws.amazon.com/cloudformation/" xr:uid="{0F67EE3A-6C45-4528-9386-5704563C1C41}"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://www.terraform.io/" xr:uid="{1811E3C5-1BBE-4744-B186-17DE002D7010}"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://aws.amazon.com/lambda/" xr:uid="{A925F0BF-2855-4657-B05C-8ACAD340D9AB}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{33074FC9-6205-410E-BA97-1BBECAB9CC38}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{A12A18A3-3B63-4BD5-B2A8-035A14F13071}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://github.com/httpie/httpie" xr:uid="{13FE0E5C-F29C-4154-83E6-7D2FDC612995}"/>
+    <hyperlink ref="E8" r:id="rId4" display="https://github.com/gessnerfl/fake-smtp-server" xr:uid="{0BB40481-6536-44AC-96AD-9936A7E5914D}"/>
+    <hyperlink ref="E9" r:id="rId5" display="https://camunda.com/" xr:uid="{FC48E218-9726-42BF-B18C-756D80D463AE}"/>
+    <hyperlink ref="E10" r:id="rId6" display="https://openai.com/api/" xr:uid="{77F5C5ED-DDF6-4FD2-8AC0-9D843673FBA1}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{5466227E-724C-4CAE-A163-F2868D50EAB9}"/>
+    <hyperlink ref="E18" r:id="rId8" display="https://flutter.dev/" xr:uid="{7E859B1B-ECC2-4110-A5AC-1C6E3459AE2A}"/>
+    <hyperlink ref="E19" r:id="rId9" display="https://jmockit.github.io/" xr:uid="{175728EC-6BE2-4ECF-B8ED-1B7AC04D2977}"/>
+    <hyperlink ref="E17" r:id="rId10" display="https://arthas.aliyun.com/doc/" xr:uid="{9DEE00C7-6287-4AA8-B5E4-2E297E14C39D}"/>
+    <hyperlink ref="E16" r:id="rId11" display="https://aws.amazon.com/cloudformation/" xr:uid="{0F67EE3A-6C45-4528-9386-5704563C1C41}"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://www.terraform.io/" xr:uid="{1811E3C5-1BBE-4744-B186-17DE002D7010}"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://aws.amazon.com/lambda/" xr:uid="{A925F0BF-2855-4657-B05C-8ACAD340D9AB}"/>
+    <hyperlink ref="E20" r:id="rId14" xr:uid="{33074FC9-6205-410E-BA97-1BBECAB9CC38}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{A12A18A3-3B63-4BD5-B2A8-035A14F13071}"/>
+    <hyperlink ref="E22" r:id="rId16" display="https://jmockit.github.io/" xr:uid="{20DC4544-1FC0-48EB-A250-948E47672D69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
